--- a/docs/timer/定时器整理 (发现组).xlsx
+++ b/docs/timer/定时器整理 (发现组).xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\SVN\design\定时器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\docs\timer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="当前" sheetId="2" r:id="rId1"/>
+    <sheet name="废弃" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">废弃!$A$1:$P$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>定时器大类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +131,164 @@
   </si>
   <si>
     <t>每6小时执行一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+  </si>
+  <si>
+    <t>定时器大类</t>
+  </si>
+  <si>
+    <t>定时器文件</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>最新</t>
+  </si>
+  <si>
+    <t>是否必须运行</t>
+  </si>
+  <si>
+    <t>启动时间</t>
+  </si>
+  <si>
+    <t>必须几点前运行完成</t>
+  </si>
+  <si>
+    <t>预计运行时长（分钟）</t>
+  </si>
+  <si>
+    <t>原开发人</t>
+  </si>
+  <si>
+    <t>原责任人</t>
+  </si>
+  <si>
+    <t>原项目经理</t>
+  </si>
+  <si>
+    <t>使用文档</t>
+  </si>
+  <si>
+    <t>使用与否</t>
+  </si>
+  <si>
+    <t>可否删除</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>新定时器名称</t>
+  </si>
+  <si>
+    <t>定时器类名称</t>
+  </si>
+  <si>
+    <t>定时器执行参数</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>周期</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>执行失败原因</t>
+  </si>
+  <si>
+    <t>ITimerFacade</t>
+  </si>
+  <si>
+    <t>msgToPartnerComingHostAcct</t>
+  </si>
+  <si>
+    <t>业主账单快到期提醒打款</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>保持原样</t>
+  </si>
+  <si>
+    <t>王祥毅</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>已经修改完成，每天跑一遍</t>
+  </si>
+  <si>
+    <t>MsgComingHostAcctTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.MsgComingHostAcctTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgComingHostAcctTask"}</t>
+  </si>
+  <si>
+    <t>00 00 09 * *</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>3.0.2</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>赵良智</t>
+  </si>
+  <si>
+    <t>msgToPartnerHostAcctDuedate</t>
+  </si>
+  <si>
+    <t>业主账单逾期期提醒打款</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>MsgHostAcctDuedateTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.MsgHostAcctDuedateTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgHostAcctDuedateTask"}</t>
+  </si>
+  <si>
+    <t>WeixinReportTask</t>
+  </si>
+  <si>
+    <t>发送微信日报</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.WeixinReportTask"}</t>
+  </si>
+  <si>
+    <t>0 0 9 * *</t>
+  </si>
+  <si>
+    <t>ImportShouldPayBillsTask任务必须完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +327,78 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -215,13 +446,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +502,69 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,13 +847,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
+    <col min="20" max="20" width="38.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="32" customFormat="1" ht="57">
+      <c r="A1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="21" customFormat="1" ht="42.75">
+      <c r="A2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="21" customFormat="1" ht="40.5">
+      <c r="A3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="21" customFormat="1" ht="27">
+      <c r="A4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="5" bestFit="1" customWidth="1"/>
@@ -563,7 +1160,7 @@
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="14.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
